--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="1" r:id="rId1"/>
+    <sheet name="协议结构" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>用户：bbb，对象：aaa，文件：txt文档</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>{"communication_type":"token","token_length":16,"content":"XXX"}</t>
+  </si>
+  <si>
+    <t>tokenback</t>
+  </si>
+  <si>
+    <t>{"communication_type":"tokenback","token_length":16,"content":"XXX"}</t>
+  </si>
+  <si>
+    <t>registerback</t>
+  </si>
+  <si>
+    <t>loginback</t>
   </si>
 </sst>
 </file>
@@ -107,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -129,36 +147,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,13 +175,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -186,15 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +214,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,9 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +299,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,169 +365,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,20 +754,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,17 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +798,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,17 +837,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -841,149 +859,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,9 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1124,53 +1139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>561340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12115800" y="800100"/>
-          <a:ext cx="3724275" cy="989965"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,7 +1430,7 @@
   <sheetPr/>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
@@ -1489,12 +1457,12 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -1517,7 +1485,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="23"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:11">
       <c r="A3" s="7" t="s">
@@ -1538,7 +1506,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" ht="46" customHeight="1" spans="1:13">
       <c r="A4" s="3"/>
@@ -1555,9 +1523,9 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
@@ -1576,14 +1544,14 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4"/>
@@ -1593,14 +1561,14 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
@@ -1610,9 +1578,9 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
@@ -1631,9 +1599,9 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
@@ -1652,9 +1620,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
@@ -1673,9 +1641,9 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3"/>
@@ -1690,9 +1658,9 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
@@ -1711,679 +1679,679 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" ht="14.25" spans="1:13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" ht="14.25" spans="8:13">
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="8:13">
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="8:13">
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
     <row r="18" spans="8:13">
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="8:13">
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="8:13">
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="8:13">
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
     </row>
     <row r="22" spans="8:13">
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
     </row>
     <row r="23" spans="8:13">
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="8:13">
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="8:13">
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="20"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" spans="8:13">
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="8:13">
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="8:13">
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
     </row>
     <row r="30" spans="8:13">
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="8:13">
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="8:13">
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
     </row>
     <row r="35" spans="8:13">
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="8:13">
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
     </row>
     <row r="37" spans="8:13">
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
     </row>
     <row r="38" spans="8:13">
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="8:13">
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="8:13">
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="8:13">
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="8:13">
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" spans="8:13">
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="8:13">
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="8:13">
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="8:13">
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
     </row>
     <row r="47" spans="8:13">
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
     </row>
     <row r="48" spans="8:13">
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
     </row>
     <row r="52" spans="8:13">
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
     </row>
     <row r="53" spans="8:13">
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
     </row>
     <row r="54" spans="8:13">
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
     </row>
     <row r="55" spans="8:13">
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
     </row>
     <row r="56" spans="8:13">
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
     </row>
     <row r="57" spans="8:13">
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
     </row>
     <row r="58" spans="8:13">
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
     </row>
     <row r="59" spans="8:13">
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
     </row>
     <row r="60" spans="8:13">
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
     </row>
     <row r="61" spans="8:13">
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
     </row>
     <row r="62" spans="8:13">
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
     </row>
     <row r="63" spans="8:13">
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
     </row>
     <row r="64" spans="8:13">
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
     </row>
     <row r="65" spans="8:13">
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
     </row>
     <row r="66" spans="8:13">
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
     </row>
     <row r="67" spans="8:13">
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
     </row>
     <row r="68" spans="8:13">
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
     </row>
     <row r="69" spans="8:13">
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
     </row>
     <row r="70" spans="8:13">
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
     </row>
     <row r="71" spans="8:13">
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
     </row>
     <row r="72" spans="8:13">
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
     </row>
     <row r="73" spans="8:13">
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
     </row>
     <row r="74" spans="8:13">
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
     </row>
     <row r="75" spans="8:13">
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
     </row>
     <row r="76" spans="8:13">
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
     </row>
     <row r="77" spans="8:13">
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
     </row>
     <row r="78" spans="8:13">
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
     </row>
     <row r="79" spans="8:13">
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
     </row>
     <row r="80" spans="8:13">
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
     </row>
     <row r="81" spans="8:13">
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
     </row>
     <row r="82" spans="8:13">
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
     </row>
     <row r="83" spans="8:13">
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
     </row>
     <row r="84" spans="8:13">
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
     </row>
     <row r="85" spans="8:13">
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
     </row>
     <row r="86" spans="8:13">
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
     </row>
     <row r="87" spans="8:13">
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
     </row>
     <row r="88" spans="8:13">
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
     </row>
     <row r="89" spans="8:13">
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
     </row>
     <row r="90" spans="8:13">
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
     </row>
     <row r="91" spans="8:13">
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
     </row>
     <row r="92" spans="8:13">
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
     </row>
     <row r="93" spans="8:13">
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
     </row>
     <row r="94" spans="8:13">
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2403,21 +2371,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="76.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
-    <sheet name="协议结构" sheetId="2" r:id="rId2"/>
+    <sheet name="协议结构（未加密）" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -114,10 +114,22 @@
     <t>{"communication_type":"tokenback","token_length":16,"content":"XXX"}</t>
   </si>
   <si>
+    <t>{"communication_type":"register","customer":"赤眼の沙萨","password":"123456"}</t>
+  </si>
+  <si>
     <t>registerback</t>
   </si>
   <si>
+    <t>{"communication_type":"registerback","customer":"赤眼の沙萨","register_result":"succeed","id":60004}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"login","id":60001,"password":"aaa"}</t>
+  </si>
+  <si>
     <t>loginback</t>
+  </si>
+  <si>
+    <t>{"communication_type":"loginback","customer":"","login_result":"succeed","description":"login succeed"}</t>
   </si>
 </sst>
 </file>
@@ -125,8 +137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -147,6 +159,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -154,22 +173,54 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +234,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,36 +272,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,17 +280,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,14 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,55 +311,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,127 +485,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +762,80 @@
       </top>
       <bottom style="thick">
         <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,21 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -792,65 +863,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,10 +871,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +883,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1161,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2380,13 +2392,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="76.25" customWidth="1"/>
+    <col min="2" max="2" width="107.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2405,24 +2417,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>{"communication_type":"loginback","customer":"","login_result":"succeed","description":"login succeed"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"chat","source":60001,"target":60002,"content":"Hello"}</t>
+  </si>
+  <si>
+    <t>chatrecv</t>
+  </si>
+  <si>
+    <t>{"communication_type":"chatrecv","content":"Hello"}</t>
   </si>
 </sst>
 </file>
@@ -138,9 +147,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,74 +168,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -249,6 +196,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -266,7 +250,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,19 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +771,15 @@
       </top>
       <bottom style="thick">
         <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,11 +810,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,9 +834,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,15 +872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -871,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,133 +892,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2389,13 +2398,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="107.625" customWidth="1"/>
@@ -2447,6 +2456,22 @@
       </c>
       <c r="B6" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>用户：bbb，对象：aaa，文件：txt文档</t>
+  </si>
+  <si>
+    <t>连接（UDP）</t>
+  </si>
+  <si>
+    <t>Accept:XXXX(Id)</t>
   </si>
   <si>
     <t>token</t>
@@ -146,8 +152,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -168,14 +174,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,29 +210,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +257,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,7 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +303,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,187 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,8 +784,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,7 +820,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,56 +855,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -872,6 +869,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -880,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -892,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2398,13 +2404,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="107.625" customWidth="1"/>
@@ -2428,15 +2434,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -2444,15 +2450,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -2460,18 +2466,26 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -30,9 +30,24 @@
     <t>测试案例</t>
   </si>
   <si>
+    <t>发送报文</t>
+  </si>
+  <si>
+    <t>返回报文</t>
+  </si>
+  <si>
+    <t>预计结果</t>
+  </si>
+  <si>
     <t>测试结果</t>
   </si>
   <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>客户端</t>
+  </si>
+  <si>
     <t>register</t>
   </si>
   <si>
@@ -42,10 +57,16 @@
     <t>用户：aaa，密码：aaa</t>
   </si>
   <si>
+    <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
+  </si>
+  <si>
     <t>enum CommunicationType {</t>
   </si>
   <si>
     <t>用户：bbb，密码：bbb</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
   </si>
   <si>
     <t xml:space="preserve">    NULLCOMMUNICATION = 0,
@@ -151,6 +172,15 @@
     <t>用户：aaa，密码：ccc</t>
   </si>
   <si>
+    <t>{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
+  </si>
+  <si>
+    <t>成功登陆</t>
+  </si>
+  <si>
     <t>用户：ccc，密码：ccc</t>
   </si>
   <si>
@@ -172,6 +202,15 @@
     <t>用户：aaa</t>
   </si>
   <si>
+    <t>{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>成功退出</t>
+  </si>
+  <si>
     <t>chat</t>
   </si>
   <si>
@@ -181,9 +220,18 @@
     <t>用户：aaa，对象：bbb，内容：你好</t>
   </si>
   <si>
+    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
   </si>
   <si>
+    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "hello"}</t>
+  </si>
+  <si>
     <t>transferfile</t>
   </si>
   <si>
@@ -194,9 +242,6 @@
   </si>
   <si>
     <t>用户：bbb，对象：aaa，文件：txt文档</t>
-  </si>
-  <si>
-    <t>ps：已知存在用户aaa，密码：aaa</t>
   </si>
 </sst>
 </file>
@@ -205,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -226,7 +271,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,15 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,86 +392,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,16 +407,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,12 +423,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,7 +543,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,13 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,139 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +731,56 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -704,74 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -786,6 +813,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,137 +851,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,53 +991,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1342,45 +1417,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="topRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="69.5" customWidth="1"/>
-    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="44.125" customWidth="1"/>
+    <col min="4" max="4" width="74.375" customWidth="1"/>
+    <col min="5" max="5" width="84" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:16">
+    <row r="1" ht="48" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" ht="15" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1393,148 +1474,236 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="H3" t="s">
+    <row r="3" ht="15" spans="1:8">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="H4" s="14" t="s">
+    <row r="4" ht="14.25" spans="1:12">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" ht="14.25" spans="1:12">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="L5" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="22"/>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="H7" s="23"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15"/>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="23"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="16"/>
+    <row r="9" ht="14.25" spans="1:8">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
     </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13"/>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="24"/>
     </row>
-    <row r="9" ht="15" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7"/>
+    <row r="11" ht="15" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="24"/>
     </row>
-    <row r="10" ht="15" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="10"/>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13"/>
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10"/>
+    <row r="15" ht="14.25" spans="1:8">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="13"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
-    <row r="15" ht="14.25"/>
-    <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="18"/>
+    <row r="28" spans="1:1">
+      <c r="A28" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="H4:M95"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="L5:Q96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -250,9 +250,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -271,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +284,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -292,14 +307,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,100 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,31 +423,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,19 +537,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,127 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,20 +751,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,17 +788,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,9 +823,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,10 +839,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,16 +851,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,119 +869,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,9 +991,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,9 +1000,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,33 +1012,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1052,9 +1028,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1422,7 +1395,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1443,260 +1416,261 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="15" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="L4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="L5" s="28" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="L5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
+      <c r="A7" s="14"/>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="23"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
+      <c r="A8" s="14"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="24"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
+    <row r="16" ht="14.25"/>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -60,6 +60,15 @@
     <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
   </si>
   <si>
+    <t>{"communication_type":"registerbackfailed","customer":"aaa","description":"user name has already exist","register_result":"failed"}</t>
+  </si>
+  <si>
+    <t>注册失败</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>enum CommunicationType {</t>
   </si>
   <si>
@@ -67,6 +76,12 @@
   </si>
   <si>
     <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"registerbacksucceed","customer":"bbb","register_result":"succeed"}</t>
+  </si>
+  <si>
+    <t>注册成功，写入数据表</t>
   </si>
   <si>
     <t xml:space="preserve">    NULLCOMMUNICATION = 0,
@@ -175,10 +190,16 @@
     <t>{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
   </si>
   <si>
+    <t>{ "communication_type":"login", "customer" : "aaa", "password" : "aaa"}</t>
+  </si>
+  <si>
     <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
   </si>
   <si>
-    <t>成功登陆</t>
+    <t>成功登录</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"login", "customer" : "bbb", "password" : "bbb"}</t>
   </si>
   <si>
     <t>用户：ccc，密码：ccc</t>
@@ -221,9 +242,6 @@
   </si>
   <si>
     <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
-  </si>
-  <si>
-    <t>dd</t>
   </si>
   <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
@@ -249,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -271,6 +289,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -279,6 +325,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,22 +354,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,86 +417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,11 +767,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,45 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -839,10 +857,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,133 +869,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,9 +1411,9 @@
   <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1404,8 +1422,8 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="4" width="74.375" customWidth="1"/>
-    <col min="5" max="5" width="84" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="132.125" customWidth="1"/>
+    <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="27.875" customWidth="1"/>
   </cols>
@@ -1472,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="14.25" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1485,50 +1503,58 @@
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:12">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="L5" s="19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
@@ -1537,12 +1563,27 @@
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14"/>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="15"/>
     </row>
@@ -1550,7 +1591,7 @@
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1560,13 +1601,13 @@
     </row>
     <row r="10" ht="15" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1576,42 +1617,42 @@
     </row>
     <row r="11" ht="15" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
@@ -1620,10 +1661,10 @@
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1632,13 +1673,13 @@
     </row>
     <row r="14" ht="14.25" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1650,7 +1691,7 @@
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -57,127 +57,18 @@
     <t>用户：aaa，密码：aaa</t>
   </si>
   <si>
-    <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"registerbackfailed","customer":"aaa","description":"user name has already exist","register_result":"failed"}</t>
-  </si>
-  <si>
-    <t>注册失败</t>
+    <t>客户端：{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"registerbacksucceed","id":"10001","register_result":"succeed"}</t>
+  </si>
+  <si>
+    <t>注册成功</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>enum CommunicationType {</t>
-  </si>
-  <si>
-    <t>用户：bbb，密码：bbb</t>
-  </si>
-  <si>
-    <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"registerbacksucceed","customer":"bbb","register_result":"succeed"}</t>
-  </si>
-  <si>
-    <t>注册成功，写入数据表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    NULLCOMMUNICATION = 0,
-    ERRORCOMMUNICATION,
-    REGISTER,
-    /*
-      { "communication_type":"register"
-      , "customer" : "aaa"
-      , "password" : "******"} // 加密
-    */
-    REGISTERBACKSUCCEED,
-    /*
-      { "communication_type":"registerbacksucceed"
-      , "customer" : "aaa"
-      , "register_result" : "succeed"}
-    */
-    REGISTERBACKFAILED,
-    /*
-      { "communication_type":"registerbackfailed"
-      , "customer" : "aaa"
-      , "register_result" : "failed"
-      , "description" : "user name is already have"}
-    */
-    LOGIN,
-    /*
-      { "communication_type":"login"
-      , "customer" : "aaa"
-      , "password" : "******"} // 加密
-    */
-    LOGINBACKSUCCEED,
-    /*
-      { "communication_type":"loginbacksucceed"
-      , "customer" : "aaa"
-      , "login_result" : "succeed"}
-    */
-    LOGINBACKFAILED,
-    /*
-      { "communication_type":"loginbackfailed"
-      , "customer" : "aaa"
-      , "login_result" : "failed"
-      , "description" : "password error"}
-    */
-    SHOWLOGIN,
-    /*
-      { "communication_type":"showlogin"
-      , "customer" : "aaa|bbb|ccc"
-      . "customer_num" : 3}
-    */
-    DELETECUSTOMER,
-    /*
-      { "communication_type":"deletecustomer"
-      , "customer" : "aaa"
-      , "source" : "aaa"}
-    */
-    CHAT,
-    /*
-      { "communication_type":"chat"
-      , "source" : "aaa"
-      , "target" : "bbb"
-      , "content" : "hello"}
-    */
-    TRANSFERFILEREQUEST,
-    /*
-      { "communication_type":"transferfilerequest"
-      , "source" : "bbb"
-      , "target" : "aaa"
-      , "file_name" : "a.cpp"
-      , "file_length" : 10}
-    */
-    TRANSFERFILERESPOND,
-    /*
-      { "communication_type":"transferfilerespond"
-      , "source" : "aaa"
-      , "target" : "bbb"
-      , "file_name" : "a.cpp"
-      , "transfer_result" : "agree/refuse"}
-    */
-    TRANSFERFILE,
-    /*
-      { "communication_type":"transferfile"
-      , "source" : "bbb"
-      , "target" : "aaa"
-      , "file_name" : "a.cpp"
-      , "file_length" : 10
-      , "file_content" : "1325464524"
-      , "file_block" : 1
-      , "current_block" : 1}
-    */
-    FORCEDELETE,
-    /*
-      { "communication_type":"forcedelete"
-      , "customer" : "bbb"}
-    */
-};</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -187,31 +78,45 @@
     <t>用户：aaa，密码：ccc</t>
   </si>
   <si>
-    <t>{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
-  </si>
-  <si>
-    <t>{ "communication_type":"login", "customer" : "aaa", "password" : "aaa"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
+    <t>客户端：{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginbackfailed","customer":"aaa",
+"description":"password error","login_result":"failed"}</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"login", "customer" : "aaa", "password" : "aaa"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
   </si>
   <si>
     <t>成功登录</t>
   </si>
   <si>
-    <t>{ "communication_type":"login", "customer" : "bbb", "password" : "bbb"}</t>
-  </si>
-  <si>
     <t>用户：ccc，密码：ccc</t>
   </si>
   <si>
-    <t>showlogin</t>
+    <t>客户端：{ "communication_type":"login", "customer" : "ccc", "password" : "ccc"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginbackfailed","customer":"ccc",
+"description":"no such user name","login_result":"failed"}</t>
+  </si>
+  <si>
+    <t>loginboardcast</t>
   </si>
   <si>
     <t>显示登录</t>
   </si>
   <si>
-    <t>用户：aaa|bbb</t>
+    <t>用户：aaa</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginboardcast","customer":"aaa-127.0.0.1"}</t>
   </si>
   <si>
     <t>deletecustomer</t>
@@ -220,10 +125,7 @@
     <t>用户退出</t>
   </si>
   <si>
-    <t>用户：aaa</t>
-  </si>
-  <si>
-    <t>{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
+    <t>客户端：{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
   </si>
   <si>
     <t>无</t>
@@ -241,13 +143,21 @@
     <t>用户：aaa，对象：bbb，内容：你好</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
+    <t>客户端：{ "communication_type":"chat", "source" : "aaa", 
+"target" : "bbb-127.0.0.1", "content" : "你好"}</t>
+  </si>
+  <si>
+    <t>target：{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
   </si>
   <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "hello"}</t>
+    <t>客户端：{ "communication_type":"chat", "source" : "aaa", 
+"target" : "bbb-127.0.0.1", "content" : "hello"}</t>
+  </si>
+  <si>
+    <t>target：{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "Hello"}</t>
   </si>
   <si>
     <t>transferfile</t>
@@ -256,10 +166,14 @@
     <t>传送文件</t>
   </si>
   <si>
-    <t>用户：aaa，对象：bbb，文件：图片</t>
-  </si>
-  <si>
-    <t>用户：bbb，对象：aaa，文件：txt文档</t>
+    <t>用户：aaa，对象：bbb，文件：a.jpg</t>
+  </si>
+  <si>
+    <t>用户：bbb，对象：aaa，文件：a.txt</t>
+  </si>
+  <si>
+    <t>客户端：{"communication_type":"transferfilerequest","file_length":"4001",
+"file_name":"a.txt","source":"aaa","target":"aaa-127.0.0.1"}</t>
   </si>
 </sst>
 </file>
@@ -267,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -289,21 +203,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,15 +230,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,25 +263,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,7 +310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,14 +318,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +338,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,19 +355,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,145 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +622,24 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF00B050"/>
       </bottom>
@@ -731,24 +663,6 @@
       <bottom style="thick">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -767,6 +681,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -815,30 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -857,10 +771,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,137 +783,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1056,9 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1408,12 +1325,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1421,8 +1338,8 @@
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="74.375" customWidth="1"/>
-    <col min="5" max="5" width="132.125" customWidth="1"/>
+    <col min="4" max="4" width="82" customWidth="1"/>
+    <col min="5" max="5" width="96" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="27.875" customWidth="1"/>
@@ -1439,18 +1356,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" ht="15" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1490,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" ht="15" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1513,212 +1430,198 @@
         <v>16</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="L4" t="s">
+    </row>
+    <row r="5" ht="27.75" spans="1:8">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="L5" s="19" t="s">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" ht="27.75" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17"/>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="9" ht="15" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H9" s="7"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="14"/>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="15"/>
+    <row r="10" ht="27.75" spans="1:8">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+    <row r="11" ht="27.75" spans="1:8">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
     </row>
-    <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
+    <row r="13" ht="27" customHeight="1" spans="1:8">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="17"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+    <row r="14" ht="14.25"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" ht="14.25"/>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="17"/>
+    <row r="26" spans="1:1">
+      <c r="A26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="L5:Q96"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="L5:Q94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -54,10 +54,11 @@
     <t>注册用户</t>
   </si>
   <si>
-    <t>用户：aaa，密码：aaa</t>
-  </si>
-  <si>
-    <t>客户端：{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
+    <t>用户：藐视①切，密码：Chen590526</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"register", "customer" : "藐视①切", 
+"password" : "Chen500526"}</t>
   </si>
   <si>
     <t>服务器：{"communication_type":"registerbacksucceed","id":"10001","register_result":"succeed"}</t>
@@ -75,10 +76,10 @@
     <t>用户登录</t>
   </si>
   <si>
-    <t>用户：aaa，密码：ccc</t>
-  </si>
-  <si>
-    <t>客户端：{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
+    <t>id：10001，密码：ccc</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"login", "id" : "10001", "password" : "ccc"}</t>
   </si>
   <si>
     <t>服务器：{"communication_type":"loginbackfailed","customer":"aaa",
@@ -88,7 +89,10 @@
     <t>登录失败</t>
   </si>
   <si>
-    <t>客户端：{ "communication_type":"login", "customer" : "aaa", "password" : "aaa"}</t>
+    <t>id：10001，密码：aaa</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"login", "id" : "10001", "password" : "aaa"}</t>
   </si>
   <si>
     <t>服务器：{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
@@ -97,10 +101,10 @@
     <t>成功登录</t>
   </si>
   <si>
-    <t>用户：ccc，密码：ccc</t>
-  </si>
-  <si>
-    <t>客户端：{ "communication_type":"login", "customer" : "ccc", "password" : "ccc"}</t>
+    <t>id：20000，密码：ccc</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"login", "id" : "20000", "password" : "ccc"}</t>
   </si>
   <si>
     <t>服务器：{"communication_type":"loginbackfailed","customer":"ccc",
@@ -113,16 +117,24 @@
     <t>显示登录</t>
   </si>
   <si>
+    <t>用户10002登录</t>
+  </si>
+  <si>
+    <t>服务器-》10001：{"communication_type":"loginboardcast",
+"customer":"赤眼の沙萨-127.0.0.1"}</t>
+  </si>
+  <si>
+    <t>服务器-》10002：{"communication_type":"loginboardcast",
+"customer":"aaa-127.0.0.1"}</t>
+  </si>
+  <si>
+    <t>deletecustomer</t>
+  </si>
+  <si>
+    <t>用户退出</t>
+  </si>
+  <si>
     <t>用户：aaa</t>
-  </si>
-  <si>
-    <t>服务器：{"communication_type":"loginboardcast","customer":"aaa-127.0.0.1"}</t>
-  </si>
-  <si>
-    <t>deletecustomer</t>
-  </si>
-  <si>
-    <t>用户退出</t>
   </si>
   <si>
     <t>客户端：{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
@@ -160,7 +172,7 @@
     <t>target：{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "Hello"}</t>
   </si>
   <si>
-    <t>transferfile</t>
+    <t>transferfilerequest</t>
   </si>
   <si>
     <t>传送文件</t>
@@ -181,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -209,6 +221,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -217,14 +244,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,76 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -316,16 +329,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,7 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,13 +367,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,169 +529,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +674,15 @@
       <top/>
       <bottom style="thick">
         <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,11 +702,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,50 +756,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,30 +798,33 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,101 +834,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +962,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +982,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,12 +1343,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,18 +1374,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" ht="15" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1393,7 +1411,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1407,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:8">
+    <row r="4" ht="28.5" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1435,7 @@
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1444,7 +1462,7 @@
       <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1456,172 +1474,184 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" ht="27.75" spans="1:8">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
-    <row r="8" ht="15" spans="1:8">
+    <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="15" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" ht="28.5" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" ht="27.75" spans="1:8">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="27.75" spans="1:8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="8" t="s">
+    <row r="12" ht="27.75" spans="1:8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18"/>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="1:8">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
     </row>
-    <row r="14" ht="14.25"/>
-    <row r="16" spans="1:8">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+    <row r="14" ht="27" customHeight="1" spans="1:8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18"/>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="19"/>
+    <row r="15" ht="14.25"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="L5:Q94"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="L5:Q95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -131,7 +131,7 @@
     <t>deletecustomer</t>
   </si>
   <si>
-    <t>用户退出</t>
+    <t>用户隐身、离线</t>
   </si>
   <si>
     <t>用户：aaa</t>
@@ -186,6 +186,9 @@
   <si>
     <t>客户端：{"communication_type":"transferfilerequest","file_length":"4001",
 "file_name":"a.txt","source":"aaa","target":"aaa-127.0.0.1"}</t>
+  </si>
+  <si>
+    <t>transferfilerespond</t>
   </si>
 </sst>
 </file>
@@ -925,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -986,8 +989,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1348,7 +1363,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1374,18 +1389,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
     </row>
     <row r="2" ht="15" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1632,25 +1647,43 @@
       <c r="G14" s="16"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" ht="14.25"/>
-    <row r="17" spans="1:8">
+    <row r="15" ht="14.25" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
       <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A17:H17"/>
     <mergeCell ref="L5:Q95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -58,10 +58,10 @@
   </si>
   <si>
     <t>客户端：{ "communication_type":"register", "customer" : "藐视①切", 
-"password" : "Chen500526"}</t>
-  </si>
-  <si>
-    <t>服务器：{"communication_type":"registerbacksucceed","id":"10001","register_result":"succeed"}</t>
+"password" : "Chen590526"}</t>
+  </si>
+  <si>
+    <t>服务器：{"register_result":"succeed","communication_type":"registerbacksucceed","id":"10001"}</t>
   </si>
   <si>
     <t>注册成功</t>
@@ -79,11 +79,10 @@
     <t>id：10001，密码：ccc</t>
   </si>
   <si>
-    <t>客户端：{ "communication_type":"login", "id" : "10001", "password" : "ccc"}</t>
-  </si>
-  <si>
-    <t>服务器：{"communication_type":"loginbackfailed","customer":"aaa",
-"description":"password error","login_result":"failed"}</t>
+    <t>客户端：{ "communication_type":"login", "id" : "10000", "password" : "ccc"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginbackfailed","description":"password error","customer":"","login_result":"failed"}</t>
   </si>
   <si>
     <t>登录失败</t>
@@ -92,10 +91,10 @@
     <t>id：10001，密码：aaa</t>
   </si>
   <si>
-    <t>客户端：{ "communication_type":"login", "id" : "10001", "password" : "aaa"}</t>
-  </si>
-  <si>
-    <t>服务器：{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
+    <t>客户端：{ "communication_type":"login", "id" : "10000", "password" : "Chen931125"}</t>
+  </si>
+  <si>
+    <t>服务器：{"communication_type":"loginbacksucceed","customer":"赤眼の沙萨","login_result":"succeed"}</t>
   </si>
   <si>
     <t>成功登录</t>
@@ -107,8 +106,7 @@
     <t>客户端：{ "communication_type":"login", "id" : "20000", "password" : "ccc"}</t>
   </si>
   <si>
-    <t>服务器：{"communication_type":"loginbackfailed","customer":"ccc",
-"description":"no such user name","login_result":"failed"}</t>
+    <t>服务器：{"communication_type":"loginbackfailed","description":"no such id","customer":"","login_result":"failed"}</t>
   </si>
   <si>
     <t>loginboardcast</t>
@@ -137,7 +135,7 @@
     <t>用户：aaa</t>
   </si>
   <si>
-    <t>客户端：{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
+    <t>客户端：{ "communication_type":"delcustomer", "customer" : "赤眼の沙萨"}</t>
   </si>
   <si>
     <t>无</t>
@@ -152,21 +150,21 @@
     <t>聊天</t>
   </si>
   <si>
-    <t>用户：aaa，对象：bbb，内容：你好</t>
-  </si>
-  <si>
-    <t>客户端：{ "communication_type":"chat", "source" : "aaa", 
-"target" : "bbb-127.0.0.1", "content" : "你好"}</t>
+    <t>用户：10000，对象：10001，内容：你好</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"chat", "source" : "10000", 
+"target" : "10001", "content" : "你好"}</t>
   </si>
   <si>
     <t>target：{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
   </si>
   <si>
-    <t>用户：bbb，对象：aaa，内容：Hello World</t>
-  </si>
-  <si>
-    <t>客户端：{ "communication_type":"chat", "source" : "aaa", 
-"target" : "bbb-127.0.0.1", "content" : "hello"}</t>
+    <t>用户：10000，对象：10001，内容：Hello World</t>
+  </si>
+  <si>
+    <t>客户端：{ "communication_type":"chat", "source" : "10000", 
+"target" : "10001", "content" : "hello"}</t>
   </si>
   <si>
     <t>target：{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "Hello"}</t>
@@ -196,10 +194,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,6 +219,82 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,79 +306,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,31 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,6 +346,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -370,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,15 +675,6 @@
       <top/>
       <bottom style="thick">
         <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,7 +713,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,21 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -786,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,33 +796,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,101 +835,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,9 +963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,21 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1363,7 +1343,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1389,18 +1369,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" ht="15" spans="1:8">
       <c r="A2" s="4" t="s">
@@ -1426,7 +1406,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" ht="15" spans="1:8">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1477,7 +1457,7 @@
       <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1489,7 +1469,7 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
+      <c r="A6" s="12"/>
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -1505,27 +1485,27 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="27.75" spans="1:8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="4" t="s">
@@ -1537,7 +1517,7 @@
       <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="5"/>
@@ -1549,7 +1529,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="5"/>
@@ -1591,7 +1571,7 @@
       <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="9" t="s">
@@ -1602,22 +1582,22 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="27.75" spans="1:8">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>49</v>
       </c>
@@ -1634,51 +1614,52 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:8">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="21"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" ht="14.25" spans="1:8">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="14.25" spans="1:8">
-      <c r="A17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" ht="14.25" spans="1:8">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-    </row>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" ht="14.25"/>
     <row r="27" spans="1:1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="表结构" sheetId="4" r:id="rId1"/>
+    <sheet name="测试" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+  <si>
+    <t>tb_info</t>
+  </si>
   <si>
     <t>网络聊天室测试</t>
   </si>
@@ -60,6 +63,9 @@
     <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
   </si>
   <si>
+    <t>{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000","register_result":"succeed"}</t>
+  </si>
+  <si>
     <t>enum CommunicationType {</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
   </si>
   <si>
     <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"registerbacksucceed","customer":"bbb","id":"10001","register_result":"succeed"}</t>
   </si>
   <si>
     <t xml:space="preserve">    NULLCOMMUNICATION = 0,
@@ -169,18 +178,18 @@
     <t>用户登录</t>
   </si>
   <si>
+    <t>{ "communication_type":"login", "id" : "10000", "password" : "jaqahama0apa"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
+  </si>
+  <si>
+    <t>成功登陆</t>
+  </si>
+  <si>
     <t>用户：aaa，密码：ccc</t>
   </si>
   <si>
-    <t>{ "communication_type":"login", "customer" : "aaa", "password" : "ccc"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
-  </si>
-  <si>
-    <t>成功登陆</t>
-  </si>
-  <si>
     <t>用户：ccc，密码：ccc</t>
   </si>
   <si>
@@ -242,6 +251,9 @@
   </si>
   <si>
     <t>用户：bbb，对象：aaa，文件：txt文档</t>
+  </si>
+  <si>
+    <t>jaqahama0apa</t>
   </si>
 </sst>
 </file>
@@ -249,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -292,21 +304,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -335,80 +419,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,25 +435,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,19 +585,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,133 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,26 +761,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -784,6 +776,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -825,9 +835,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,10 +851,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,7 +863,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,128 +872,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,9 +1003,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,9 +1012,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,23 +1024,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1042,8 +1036,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1052,9 +1046,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1128,6 +1119,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5676900" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,12 +1455,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E37" sqref="E37"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1430,7 +1491,7 @@
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="74.375" customWidth="1"/>
+    <col min="4" max="4" width="87.625" customWidth="1"/>
     <col min="5" max="5" width="84" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
@@ -1439,264 +1500,274 @@
   <sheetData>
     <row r="1" ht="48" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="15" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="4" ht="27.75" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="L5" s="28" t="s">
+    <row r="5" ht="27.75" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="L5" s="21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="24"/>
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" ht="14.25"/>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="26"/>
+      <c r="A28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1705,23 +1776,6 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="L5:Q96"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>tb_info</t>
   </si>
@@ -33,6 +33,9 @@
     <t>测试案例</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>发送报文</t>
   </si>
   <si>
@@ -60,114 +63,124 @@
     <t>用户：aaa，密码：aaa</t>
   </si>
   <si>
-    <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000","register_result":"succeed"}</t>
-  </si>
-  <si>
-    <t>enum CommunicationType {</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa", 
+  "mac" : "00-25-F2-69-EE-90", "ip" : "192.168.0.104"}</t>
+  </si>
+  <si>
+    <t>{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000",
+ "register_result":"succeed"}</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>用户：bbb，密码：bbb</t>
   </si>
   <si>
-    <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
+    <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb",
+  "mac" : "00-25-F2-69-EE-90", "ip" : "192.168.0.104"}</t>
   </si>
   <si>
     <t>{"communication_type":"registerbacksucceed","customer":"bbb","id":"10001","register_result":"succeed"}</t>
   </si>
   <si>
-    <t xml:space="preserve">    NULLCOMMUNICATION = 0,
+    <t>enum class CommunicationType {
+    NULLCOMMUNICATION = 0,
     ERRORCOMMUNICATION,
     REGISTER,
     /*
-      { "communication_type":"register"
-      , "customer" : "aaa"
-      , "password" : "******"} // 加密
+        { "communication_type":"register"
+        , "customer" : "aaa"
+        , "password" : "******"} // 加密
     */
     REGISTERBACKSUCCEED,
     /*
-      { "communication_type":"registerbacksucceed"
-      , "customer" : "aaa"
-      , "register_result" : "succeed"}
+        { "communication_type":"registerbacksucceed"
+        , "customer" : "aaa"
+        , "id" : 60001
+        , "register_result" : "succeed"}
     */
     REGISTERBACKFAILED,
     /*
-      { "communication_type":"registerbackfailed"
-      , "customer" : "aaa"
-      , "register_result" : "failed"
-      , "description" : "user name is already have"}
+        { "communication_type":"registerbackfailed"
+        , "customer" : "aaa"
+        , "register_result" : "failed"
+        , "description" : "unkown error"}
     */
     LOGIN,
     /*
-      { "communication_type":"login"
-      , "customer" : "aaa"
-      , "password" : "******"} // 加密
+        { "communication_type":"login"
+        , "id" : 60001
+        , "password" : "******"} // 加密
     */
     LOGINBACKSUCCEED,
     /*
-      { "communication_type":"loginbacksucceed"
-      , "customer" : "aaa"
-      , "login_result" : "succeed"}
+        { "communication_type":"loginbacksucceed"
+        , "customer" : "aaa"
+        , "login_result" : "succeed"}
     */
     LOGINBACKFAILED,
     /*
-      { "communication_type":"loginbackfailed"
-      , "customer" : "aaa"
-      , "login_result" : "failed"
-      , "description" : "password error"}
+        { "communication_type":"loginbackfailed"
+        , "customer" : "aaa"
+        , "login_result" : "failed"
+        , "description" : "password error"}
     */
     SHOWLOGIN,
     /*
-      { "communication_type":"showlogin"
-      , "customer" : "aaa|bbb|ccc"
-      . "customer_num" : 3}
+        { "communication_type":"showlogin"
+        , "customer" : "aaa|bbb|ccc"
+        . "customer_num" : 3}
     */
     DELETECUSTOMER,
     /*
-      { "communication_type":"deletecustomer"
-      , "customer" : "aaa"
-      , "source" : "aaa"}
+        { "communication_type":"deletecustomer"
+        , "id" : 60001}
     */
     CHAT,
     /*
-      { "communication_type":"chat"
-      , "source" : "aaa"
-      , "target" : "bbb"
-      , "content" : "hello"}
+        { "communication_type":"chat"
+        , "source" : "aaa"
+        , "target" : "bbb"
+        , "content" : "hello"}
     */
     TRANSFERFILEREQUEST,
     /*
-      { "communication_type":"transferfilerequest"
-      , "source" : "bbb"
-      , "target" : "aaa"
-      , "file_name" : "a.cpp"
-      , "file_length" : 10}
+        { "communication_type":"transferfilerequest"
+        , "source" : "bbb"
+        , "target" : "aaa"
+        , "file_name" : "a.cpp"
+        , "file_length" : 10}
     */
     TRANSFERFILERESPOND,
     /*
-      { "communication_type":"transferfilerespond"
-      , "source" : "aaa"
-      , "target" : "bbb"
-      , "file_name" : "a.cpp"
-      , "transfer_result" : "agree/refuse"}
+        { "communication_type":"transferfilerespond"
+        , "source" : "aaa"
+        , "target" : "bbb"
+        , "file_name" : "a.cpp"
+        , "transfer_result" : "agree/refuse"}
     */
     TRANSFERFILE,
     /*
-      { "communication_type":"transferfile"
-      , "source" : "bbb"
-      , "target" : "aaa"
-      , "file_name" : "a.cpp"
-      , "file_length" : 10
-      , "file_content" : "1325464524"
-      , "file_block" : 1
-      , "current_block" : 1}
+        { "communication_type":"transferfile"
+        , "source" : "bbb"
+        , "target" : "aaa"
+        , "file_name" : "a.cpp"
+        , "file_length" : 10
+        , "file_content" : "1325464524"
+        , "file_block" : 1
+        , "current_block" : 1}
     */
     FORCEDELETE,
     /*
-      { "communication_type":"forcedelete"
-      , "customer" : "bbb"}
+        { "communication_type":"forcedelete"
+        , "customer" : "bbb"}
     */
 };</t>
   </si>
@@ -178,6 +191,9 @@
     <t>用户登录</t>
   </si>
   <si>
+    <t>用户：10000，密码：aaa</t>
+  </si>
+  <si>
     <t>{ "communication_type":"login", "id" : "10000", "password" : "jaqahama0apa"}</t>
   </si>
   <si>
@@ -187,10 +203,40 @@
     <t>成功登陆</t>
   </si>
   <si>
-    <t>用户：aaa，密码：ccc</t>
-  </si>
-  <si>
-    <t>用户：ccc，密码：ccc</t>
+    <t>OK  IsLogin = 1</t>
+  </si>
+  <si>
+    <t>用户10000已登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"this user has already login in, please make sure or modify your password","login_result":"failed"}
+</t>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>用户：10000，密码：ccc</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"login", "id" : "10000", "password" : "cccccccccccc"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"password error","login_result":"failed"}
+</t>
+  </si>
+  <si>
+    <t>用户：99999，密码：aaa</t>
+  </si>
+  <si>
+    <t>用户99999未注册</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"login", "id" : "99999", "password" : "jaqahama0apa"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"there is no such user","login_result":"failed"}
+</t>
   </si>
   <si>
     <t>showlogin</t>
@@ -202,6 +248,9 @@
     <t>用户：aaa|bbb</t>
   </si>
   <si>
+    <t>用户登录,登出,服务器自动广播</t>
+  </si>
+  <si>
     <t>deletecustomer</t>
   </si>
   <si>
@@ -211,7 +260,7 @@
     <t>用户：aaa</t>
   </si>
   <si>
-    <t>{ "communication_type":"delcustomer", "customer" : "aaa"}</t>
+    <t>{ "communication_type":"delcustomer", "id":"10000"}</t>
   </si>
   <si>
     <t>无</t>
@@ -220,6 +269,9 @@
     <t>成功退出</t>
   </si>
   <si>
+    <t>OK  IsLogin = 0</t>
+  </si>
+  <si>
     <t>chat</t>
   </si>
   <si>
@@ -229,16 +281,24 @@
     <t>用户：aaa，对象：bbb，内容：你好</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "你好"}</t>
-  </si>
-  <si>
-    <t>dd</t>
+    <t>用户10000已登录,10001未登录</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
+  "content" : "你好"}</t>
+  </si>
+  <si>
+    <t>成功发送</t>
   </si>
   <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "source" : "aaa", "target" : "bbb", "content" : "hello"}</t>
+    <t>用户10000已登录,10001已登录</t>
+  </si>
+  <si>
+    <t>{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
+  "content" : "Hello World"}</t>
   </si>
   <si>
     <t>transferfile</t>
@@ -642,17 +702,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
       <top style="thick">
         <color rgb="FF00B050"/>
       </top>
@@ -684,19 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00B050"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF00B050"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF00B050"/>
       </left>
@@ -717,6 +753,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FF00B050"/>
@@ -725,15 +794,6 @@
       <bottom style="thick">
         <color rgb="FF00B050"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF00B050"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -993,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,49 +1063,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1054,11 +1111,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1126,19 +1201,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76835</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>229235</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1151,8 +1226,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="5676900" cy="2419350"/>
+          <a:off x="76835" y="276225"/>
+          <a:ext cx="5638800" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,10 +1530,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1467,6 +1542,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1478,27 +1556,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T96"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="44.125" customWidth="1"/>
-    <col min="4" max="4" width="87.625" customWidth="1"/>
-    <col min="5" max="5" width="84" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="3" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="77.75" customWidth="1"/>
+    <col min="6" max="6" width="84" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:20">
+    <row r="1" ht="48" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1586,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="20"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -1521,260 +1599,345 @@
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
-    <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="15" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
-    <row r="3" ht="15" spans="1:8">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10" t="s">
+    <row r="3" ht="15" spans="1:9">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" ht="27.75" spans="1:12">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="L4" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="22"/>
     </row>
-    <row r="5" ht="27.75" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13" t="s">
+    <row r="5" ht="27.75" spans="1:13">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="15"/>
-      <c r="L5" s="21" t="s">
-        <v>20</v>
+      <c r="I5" s="23"/>
+      <c r="M5" s="24" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="9" t="s">
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="16"/>
+    <row r="7" ht="40.5" spans="1:9">
+      <c r="A7" s="14"/>
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="25"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" ht="40.5" spans="1:9">
       <c r="A8" s="16"/>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="26"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="15"/>
+    <row r="9" ht="41.25" spans="1:9">
+      <c r="A9" s="16"/>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="26"/>
     </row>
-    <row r="10" ht="15" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
+    <row r="10" ht="15" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="21"/>
     </row>
-    <row r="11" ht="15" spans="1:8">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="15" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="21"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
-      <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
+    <row r="12" ht="27.75" spans="1:9">
+      <c r="A12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="22"/>
     </row>
-    <row r="13" ht="14.25" spans="1:8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="15"/>
+    <row r="13" ht="27.75" spans="1:9">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="23"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+    <row r="14" ht="14.25" spans="1:9">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="22"/>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="15"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="23"/>
     </row>
-    <row r="16" ht="14.25"/>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>48</v>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="L5:Q96"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="M5:R96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="表结构" sheetId="4" r:id="rId1"/>
     <sheet name="测试" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>tb_info</t>
   </si>
@@ -54,6 +53,9 @@
     <t>客户端</t>
   </si>
   <si>
+    <t>联合</t>
+  </si>
+  <si>
     <t>register</t>
   </si>
   <si>
@@ -66,11 +68,10 @@
     <t>/</t>
   </si>
   <si>
-    <t>{ "communication_type":"register", "customer" : "aaa", "password" : "aaa", 
-  "mac" : "00-25-F2-69-EE-90", "ip" : "192.168.0.104"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000",
+    <t>客户端:{ "communication_type":"register", "customer" : "aaa", "password" : "jaqahama0apa"}</t>
+  </si>
+  <si>
+    <t>服务器:{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000",
  "register_result":"succeed"}</t>
   </si>
   <si>
@@ -83,11 +84,11 @@
     <t>用户：bbb，密码：bbb</t>
   </si>
   <si>
-    <t>{ "communication_type":"register", "customer" : "bbb", "password" : "bbb",
-  "mac" : "00-25-F2-69-EE-90", "ip" : "192.168.0.104"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"registerbacksucceed","customer":"bbb","id":"10001","register_result":"succeed"}</t>
+    <t>客户端:{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
+  </si>
+  <si>
+    <t>服务器:{"communication_type":"registerbacksucceed","customer":"bbb","id":"10001",
+"register_result":"succeed"}</t>
   </si>
   <si>
     <t>enum class CommunicationType {
@@ -194,10 +195,12 @@
     <t>用户：10000，密码：aaa</t>
   </si>
   <si>
-    <t>{ "communication_type":"login", "id" : "10000", "password" : "jaqahama0apa"}</t>
-  </si>
-  <si>
-    <t>{"communication_type":"loginbacksucceed","customer":"aaa","login_result":"succeed"}</t>
+    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" : 
+"jaqahama0apa"}</t>
+  </si>
+  <si>
+    <t>服务器:{"communication_type":"loginbacksucceed","customer":"aaa","login_result":
+"succeed"}</t>
   </si>
   <si>
     <t>成功登陆</t>
@@ -209,34 +212,46 @@
     <t>用户10000已登录</t>
   </si>
   <si>
-    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"this user has already login in, please make sure or modify your password","login_result":"failed"}
-</t>
+    <t>服务器:{"communication_type":"loginbackfailed","customer":"aaa",
+"description":"this user has already login in, please make sure or modify your password","login_result":"192.168.0.104"}</t>
+  </si>
+  <si>
+    <t>提示是否强制登录</t>
+  </si>
+  <si>
+    <t>用户：10000，密码：ccc</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" :
+"cccccccccccc"}</t>
+  </si>
+  <si>
+    <t>服务器:{"communication_type":"loginbackfailed","description":"password error","login_result":"failed"}</t>
   </si>
   <si>
     <t>登录失败</t>
   </si>
   <si>
-    <t>用户：10000，密码：ccc</t>
-  </si>
-  <si>
-    <t>{ "communication_type":"login", "id" : "10000", "password" : "cccccccccccc"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"password error","login_result":"failed"}
-</t>
-  </si>
-  <si>
     <t>用户：99999，密码：aaa</t>
   </si>
   <si>
     <t>用户99999未注册</t>
   </si>
   <si>
-    <t>{ "communication_type":"login", "id" : "99999", "password" : "jaqahama0apa"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"communication_type":"loginbackfailed","description":"there is no such user","login_result":"failed"}
-</t>
+    <t>客户端:{ "communication_type":"login", "id" : "99999", "password" :
+"jaqahama0apa"}</t>
+  </si>
+  <si>
+    <t>服务器:{"communication_type":"loginbackfailed","description":"there is no such user","login_result":"failed"}</t>
+  </si>
+  <si>
+    <t>changepassword</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>用户: 10000, 原密码: aaa 新密码: 123</t>
   </si>
   <si>
     <t>showlogin</t>
@@ -245,10 +260,44 @@
     <t>显示登录</t>
   </si>
   <si>
-    <t>用户：aaa|bbb</t>
-  </si>
-  <si>
-    <t>用户登录,登出,服务器自动广播</t>
+    <t>用户：10000:aaa:1|10001:bbb:0|10002:ccc:0</t>
+  </si>
+  <si>
+    <t>用户登录,登出,服务器自动广播,用户10000在线，
+10001,10002离线</t>
+  </si>
+  <si>
+    <t>服务器:{ "communication_type":"showlogin", 
+"customer" : "10000:aaa:1|10001:bbb:0|10002:ccc:0", "show_login_type" : "0"}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>客户端显示用户</t>
+  </si>
+  <si>
+    <t>用户：10001:bbb:1</t>
+  </si>
+  <si>
+    <t>用户10001上线</t>
+  </si>
+  <si>
+    <t>服务器:{ "communication_type":"showlogin", "customer" : "10001:bbb:1", 
+"show_login_type" : "1"}</t>
+  </si>
+  <si>
+    <t>客户端用户改变状态</t>
+  </si>
+  <si>
+    <t>用户：10001:bbb:0</t>
+  </si>
+  <si>
+    <t>用户10001离线</t>
+  </si>
+  <si>
+    <t>服务器:{ "communication_type":"showlogin", "customer" : "10001:bbb:0", 
+"show_login_type" : "-1"}</t>
   </si>
   <si>
     <t>deletecustomer</t>
@@ -260,10 +309,7 @@
     <t>用户：aaa</t>
   </si>
   <si>
-    <t>{ "communication_type":"delcustomer", "id":"10000"}</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>客户端:{ "communication_type":"delcustomer", "id":"10000"}</t>
   </si>
   <si>
     <t>成功退出</t>
@@ -272,6 +318,18 @@
     <t>OK  IsLogin = 0</t>
   </si>
   <si>
+    <t>forcedelete</t>
+  </si>
+  <si>
+    <t>强制退出</t>
+  </si>
+  <si>
+    <t>用户: aaa</t>
+  </si>
+  <si>
+    <t>客户端/服务器:{ "communication_type":"forcedelete", "id":"10000"}</t>
+  </si>
+  <si>
     <t>chat</t>
   </si>
   <si>
@@ -284,8 +342,10 @@
     <t>用户10000已登录,10001未登录</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
-  "content" : "你好"}</t>
+    <t>客户端:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
+  </si>
+  <si>
+    <t>服务器:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
   </si>
   <si>
     <t>成功发送</t>
@@ -297,10 +357,16 @@
     <t>用户10000已登录,10001已登录</t>
   </si>
   <si>
-    <t>{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
+    <t>客户端:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "Hello World"}</t>
+  </si>
+  <si>
+    <t>服务器:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
   "content" : "Hello World"}</t>
   </si>
   <si>
+    <t>1.OK 2.</t>
+  </si>
+  <si>
     <t>transferfile</t>
   </si>
   <si>
@@ -313,7 +379,10 @@
     <t>用户：bbb，对象：aaa，文件：txt文档</t>
   </si>
   <si>
-    <t>jaqahama0apa</t>
+    <t>transferfile.txt</t>
+  </si>
+  <si>
+    <t>aaa : jaqahama0apa</t>
   </si>
 </sst>
 </file>
@@ -339,6 +408,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,14 +450,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,31 +992,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,13 +1037,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -986,10 +1055,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1004,56 +1073,56 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,12 +1147,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,46 +1162,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1533,7 +1599,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1544,7 +1610,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1556,12 +1622,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U96"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1571,12 +1637,12 @@
     <col min="3" max="4" width="44.125" customWidth="1"/>
     <col min="5" max="5" width="77.75" customWidth="1"/>
     <col min="6" max="6" width="84" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:21">
+    <row r="1" ht="48" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1587,8 +1653,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="19"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -1600,8 +1666,9 @@
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
-    </row>
-    <row r="2" ht="15" spans="1:9">
+      <c r="V1" s="20"/>
+    </row>
+    <row r="2" ht="15" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1626,9 +1693,10 @@
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" ht="15" spans="1:9">
+      <c r="I2" s="5"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" ht="15" spans="1:10">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1636,326 +1704,454 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:9">
+      <c r="J3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" ht="27.75" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" ht="27.75" spans="1:14">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="M5" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="27.75" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:9">
-      <c r="A7" s="14"/>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>32</v>
+      <c r="F7" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:9">
-      <c r="A8" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" ht="27" spans="1:10">
+      <c r="A8" s="13"/>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="F8" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" ht="41.25" spans="1:9">
-      <c r="A9" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" ht="27.75" spans="1:10">
+      <c r="A9" s="13"/>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" ht="15" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" ht="15" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" ht="15" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" ht="27.75" spans="1:10">
+      <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" ht="27.75" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" ht="27" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" ht="27.75" spans="1:9">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" ht="27.75" spans="1:10">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" ht="15" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11" t="s">
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="23"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
+      <c r="H14" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="18"/>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" ht="15" spans="1:10">
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="22"/>
+    </row>
+    <row r="16" ht="27.75" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" ht="27.75" spans="1:10">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" ht="14.25"/>
+    <row r="21" spans="5:5">
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="M5:R96"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="N5:S100"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="E19" r:id="rId1" display="transferfile.txt"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet name="表结构" sheetId="4" r:id="rId1"/>
     <sheet name="测试" sheetId="1" r:id="rId2"/>
+    <sheet name="注册1" sheetId="5" r:id="rId3"/>
+    <sheet name="注册2" sheetId="6" r:id="rId4"/>
+    <sheet name="登录" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>tb_info</t>
   </si>
@@ -81,6 +84,9 @@
     <t>OK</t>
   </si>
   <si>
+    <t>注册1!A1</t>
+  </si>
+  <si>
     <t>用户：bbb，密码：bbb</t>
   </si>
   <si>
@@ -91,99 +97,7 @@
 "register_result":"succeed"}</t>
   </si>
   <si>
-    <t>enum class CommunicationType {
-    NULLCOMMUNICATION = 0,
-    ERRORCOMMUNICATION,
-    REGISTER,
-    /*
-        { "communication_type":"register"
-        , "customer" : "aaa"
-        , "password" : "******"} // 加密
-    */
-    REGISTERBACKSUCCEED,
-    /*
-        { "communication_type":"registerbacksucceed"
-        , "customer" : "aaa"
-        , "id" : 60001
-        , "register_result" : "succeed"}
-    */
-    REGISTERBACKFAILED,
-    /*
-        { "communication_type":"registerbackfailed"
-        , "customer" : "aaa"
-        , "register_result" : "failed"
-        , "description" : "unkown error"}
-    */
-    LOGIN,
-    /*
-        { "communication_type":"login"
-        , "id" : 60001
-        , "password" : "******"} // 加密
-    */
-    LOGINBACKSUCCEED,
-    /*
-        { "communication_type":"loginbacksucceed"
-        , "customer" : "aaa"
-        , "login_result" : "succeed"}
-    */
-    LOGINBACKFAILED,
-    /*
-        { "communication_type":"loginbackfailed"
-        , "customer" : "aaa"
-        , "login_result" : "failed"
-        , "description" : "password error"}
-    */
-    SHOWLOGIN,
-    /*
-        { "communication_type":"showlogin"
-        , "customer" : "aaa|bbb|ccc"
-        . "customer_num" : 3}
-    */
-    DELETECUSTOMER,
-    /*
-        { "communication_type":"deletecustomer"
-        , "id" : 60001}
-    */
-    CHAT,
-    /*
-        { "communication_type":"chat"
-        , "source" : "aaa"
-        , "target" : "bbb"
-        , "content" : "hello"}
-    */
-    TRANSFERFILEREQUEST,
-    /*
-        { "communication_type":"transferfilerequest"
-        , "source" : "bbb"
-        , "target" : "aaa"
-        , "file_name" : "a.cpp"
-        , "file_length" : 10}
-    */
-    TRANSFERFILERESPOND,
-    /*
-        { "communication_type":"transferfilerespond"
-        , "source" : "aaa"
-        , "target" : "bbb"
-        , "file_name" : "a.cpp"
-        , "transfer_result" : "agree/refuse"}
-    */
-    TRANSFERFILE,
-    /*
-        { "communication_type":"transferfile"
-        , "source" : "bbb"
-        , "target" : "aaa"
-        , "file_name" : "a.cpp"
-        , "file_length" : 10
-        , "file_content" : "1325464524"
-        , "file_block" : 1
-        , "current_block" : 1}
-    */
-    FORCEDELETE,
-    /*
-        { "communication_type":"forcedelete"
-        , "customer" : "bbb"}
-    */
-};</t>
+    <t>注册2!A1</t>
   </si>
   <si>
     <t>login</t>
@@ -209,6 +123,9 @@
     <t>OK  IsLogin = 1</t>
   </si>
   <si>
+    <t>登录!A1</t>
+  </si>
+  <si>
     <t>用户10000已登录</t>
   </si>
   <si>
@@ -277,6 +194,9 @@
     <t>客户端显示用户</t>
   </si>
   <si>
+    <t>登录!J2</t>
+  </si>
+  <si>
     <t>用户：10001:bbb:1</t>
   </si>
   <si>
@@ -318,6 +238,9 @@
     <t>OK  IsLogin = 0</t>
   </si>
   <si>
+    <t>登录!A63</t>
+  </si>
+  <si>
     <t>forcedelete</t>
   </si>
   <si>
@@ -382,7 +305,49 @@
     <t>transferfile.txt</t>
   </si>
   <si>
+    <t>heartbeat</t>
+  </si>
+  <si>
     <t>aaa : jaqahama0apa</t>
+  </si>
+  <si>
+    <t>界面</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>表结构</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>成功注册</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>账号错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>重复登录</t>
+  </si>
+  <si>
+    <t>退出</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,9 +1142,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1194,6 +1156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1294,6 +1262,651 @@
         <a:xfrm>
           <a:off x="76835" y="276225"/>
           <a:ext cx="5638800" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="4676775" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="4400550" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7029450"/>
+          <a:ext cx="4638675" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10458450"/>
+          <a:ext cx="4667250" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="171450"/>
+          <a:ext cx="14211300" cy="6315075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="7200900"/>
+          <a:ext cx="4610100" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="7200900"/>
+          <a:ext cx="5324475" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="4514850" cy="3076575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="4476750" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3257550"/>
+          <a:ext cx="4686300" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="4476750" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="171450"/>
+          <a:ext cx="9753600" cy="6638925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="6858000"/>
+          <a:ext cx="9486900" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="7543800"/>
+          <a:ext cx="4419600" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10801350"/>
+          <a:ext cx="8191500" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1598,8 +2211,8 @@
   <sheetPr/>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1627,7 +2240,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1654,19 +2267,19 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" ht="15" spans="1:10">
       <c r="A2" s="3" t="s">
@@ -1694,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="21"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" ht="15" spans="1:10">
       <c r="A3" s="6"/>
@@ -1710,11 +2323,11 @@
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:10">
+    <row r="4" ht="33" customHeight="1" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1742,22 +2355,27 @@
       <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" ht="27.75" spans="1:14">
+      <c r="J4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="27.75" spans="1:19">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>19</v>
@@ -1768,57 +2386,76 @@
       <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="N5" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="27.75" spans="1:10">
+      <c r="J5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+    </row>
+    <row r="6" ht="27.75" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:10">
+      <c r="J6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:19">
       <c r="A7" s="13"/>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -1826,24 +2463,33 @@
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" ht="27" spans="1:10">
+      <c r="J7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+    </row>
+    <row r="8" ht="27" spans="1:19">
       <c r="A8" s="13"/>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -1851,24 +2497,33 @@
       <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" ht="27.75" spans="1:10">
+      <c r="J8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" ht="27.75" spans="1:19">
       <c r="A9" s="13"/>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1876,17 +2531,26 @@
       <c r="I9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" ht="15" spans="1:10">
+      <c r="J9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+    </row>
+    <row r="10" ht="15" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>16</v>
@@ -1896,135 +2560,175 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" ht="27.75" spans="1:10">
+      <c r="J10" s="25"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" ht="27.75" spans="1:19">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" ht="27" spans="1:10">
+      <c r="J11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" ht="27" spans="1:19">
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="G12" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" ht="27.75" spans="1:10">
+      <c r="J12" s="22"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+    </row>
+    <row r="13" ht="27.75" spans="1:19">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" ht="15" spans="1:10">
+      <c r="J13" s="22"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+    </row>
+    <row r="14" ht="15" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" ht="15" spans="1:10">
+      <c r="J14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" ht="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -2032,29 +2736,35 @@
       <c r="I15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="22"/>
-    </row>
-    <row r="16" ht="27.75" spans="1:10">
+      <c r="J15" s="21"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" ht="27.75" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -2062,41 +2772,53 @@
       <c r="I16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" ht="27.75" spans="1:10">
+      <c r="J16" s="22"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" ht="27.75" spans="1:19">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:10">
+        <v>85</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2104,56 +2826,840 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:10">
+      <c r="J18" s="26"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:19">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" ht="14.25"/>
-    <row r="21" spans="5:5">
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="J19" s="21"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" ht="15" spans="1:19">
+      <c r="A20" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="21"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" ht="14.25" spans="14:19">
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+    </row>
+    <row r="22" spans="5:19">
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+    </row>
+    <row r="23" spans="14:19">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="14:19">
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="14:19">
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="26" spans="14:19">
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+    </row>
+    <row r="27" spans="14:19">
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" spans="14:19">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="14:19">
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="14:19">
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" spans="14:19">
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="8"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" spans="14:19">
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" spans="14:19">
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" spans="14:19">
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="14:19">
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="14:19">
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+    </row>
+    <row r="38" spans="14:19">
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="14:19">
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+    </row>
+    <row r="40" spans="14:19">
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+    </row>
+    <row r="41" spans="14:19">
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+    </row>
+    <row r="42" spans="14:19">
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+    </row>
+    <row r="43" spans="14:19">
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+    </row>
+    <row r="44" spans="14:19">
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+    </row>
+    <row r="45" spans="14:19">
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="14:19">
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+    </row>
+    <row r="47" spans="14:19">
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+    </row>
+    <row r="48" spans="14:19">
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+    </row>
+    <row r="49" spans="14:19">
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+    </row>
+    <row r="50" spans="14:19">
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+    </row>
+    <row r="51" spans="14:19">
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="52" spans="14:19">
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+    </row>
+    <row r="53" spans="14:19">
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+    </row>
+    <row r="54" spans="14:19">
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+    </row>
+    <row r="55" spans="14:19">
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+    </row>
+    <row r="56" spans="14:19">
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+    </row>
+    <row r="57" spans="14:19">
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+    </row>
+    <row r="58" spans="14:19">
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+    </row>
+    <row r="59" spans="14:19">
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+    </row>
+    <row r="60" spans="14:19">
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+    </row>
+    <row r="61" spans="14:19">
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="14"/>
+      <c r="S61" s="14"/>
+    </row>
+    <row r="62" spans="14:19">
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="14"/>
+    </row>
+    <row r="63" spans="14:19">
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+    </row>
+    <row r="64" spans="14:19">
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="14"/>
+      <c r="S64" s="14"/>
+    </row>
+    <row r="65" spans="14:19">
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="14"/>
+      <c r="S65" s="14"/>
+    </row>
+    <row r="66" spans="14:19">
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="14"/>
+      <c r="S66" s="14"/>
+    </row>
+    <row r="67" spans="14:19">
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+    </row>
+    <row r="68" spans="14:19">
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+    </row>
+    <row r="69" spans="14:19">
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+    </row>
+    <row r="70" spans="14:19">
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+    </row>
+    <row r="71" spans="14:19">
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+    </row>
+    <row r="72" spans="14:19">
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+    </row>
+    <row r="73" spans="14:19">
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+    </row>
+    <row r="74" spans="14:19">
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+    </row>
+    <row r="75" spans="14:19">
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="14:19">
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+    </row>
+    <row r="77" spans="14:19">
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+    </row>
+    <row r="78" spans="14:19">
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+    </row>
+    <row r="79" spans="14:19">
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+    </row>
+    <row r="80" spans="14:19">
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+    </row>
+    <row r="81" spans="14:19">
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+    </row>
+    <row r="82" spans="14:19">
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+    </row>
+    <row r="83" spans="14:19">
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+    </row>
+    <row r="84" spans="14:19">
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+    </row>
+    <row r="85" spans="14:19">
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+    </row>
+    <row r="86" spans="14:19">
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+    </row>
+    <row r="87" spans="14:19">
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+    </row>
+    <row r="88" spans="14:19">
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+    </row>
+    <row r="89" spans="14:19">
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" spans="14:19">
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+    </row>
+    <row r="91" spans="14:19">
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="14"/>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+    </row>
+    <row r="92" spans="14:19">
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="14"/>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+    </row>
+    <row r="93" spans="14:19">
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="14"/>
+      <c r="Q93" s="14"/>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+    </row>
+    <row r="94" spans="14:19">
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+    </row>
+    <row r="95" spans="14:19">
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="14"/>
+      <c r="R95" s="14"/>
+      <c r="S95" s="14"/>
+    </row>
+    <row r="96" spans="14:19">
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="14"/>
+      <c r="R96" s="14"/>
+      <c r="S96" s="14"/>
+    </row>
+    <row r="97" spans="14:19">
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
+      <c r="R97" s="14"/>
+      <c r="S97" s="14"/>
+    </row>
+    <row r="98" spans="14:19">
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
+      <c r="R98" s="14"/>
+      <c r="S98" s="14"/>
+    </row>
+    <row r="99" spans="14:19">
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="14"/>
+      <c r="R99" s="14"/>
+      <c r="S99" s="14"/>
+    </row>
+    <row r="100" spans="14:19">
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="14"/>
+      <c r="R100" s="14"/>
+      <c r="S100" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="N5:S100"/>
+    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" display="transferfile.txt"/>
+    <hyperlink ref="K4" location="注册1!A1" display="注册1!A1"/>
+    <hyperlink ref="K5" location="注册2!A1" display="注册2!A1"/>
+    <hyperlink ref="K6" location="登录1!A1" display="登录!A1"/>
+    <hyperlink ref="K6:K9" location="登录!A1" display="登录!A1"/>
+    <hyperlink ref="K6:K9" location="表结构!A1" display="登录!A1"/>
+    <hyperlink ref="K6:K9" location="登录!A1" display="登录!A1"/>
+    <hyperlink ref="K11" location="登录!J2" display="登录!J2"/>
+    <hyperlink ref="K14" location="登录!A63" display="登录!A63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="10:19">
+      <c r="J42" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="10:10">
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>tb_info</t>
   </si>
@@ -71,7 +71,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>客户端:{ "communication_type":"register", "customer" : "aaa", "password" : "jaqahama0apa"}</t>
+    <t>客户端:{ "communication_type":"register", "customer" : "aaa", "password" : "jaqahama0apajaqahama0apa"}</t>
   </si>
   <si>
     <t>服务器:{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000",
@@ -110,7 +110,7 @@
   </si>
   <si>
     <t>客户端:{ "communication_type":"login", "id" : "10000", "password" : 
-"jaqahama0apa"}</t>
+"jaqahama0apajaqahama0apa"}</t>
   </si>
   <si>
     <t>服务器:{"communication_type":"loginbacksucceed","customer":"aaa","login_result":
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>用户10000已登录</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" : 
+"jaqahama0apa"}</t>
   </si>
   <si>
     <t>服务器:{"communication_type":"loginbackfailed","customer":"aaa",
@@ -2449,13 +2453,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>20</v>
@@ -2477,19 +2481,19 @@
     <row r="8" ht="27" spans="1:19">
       <c r="A8" s="13"/>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -2511,19 +2515,19 @@
     <row r="9" ht="27.75" spans="1:19">
       <c r="A9" s="13"/>
       <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -2544,13 +2548,13 @@
     </row>
     <row r="10" ht="15" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>16</v>
@@ -2570,25 +2574,25 @@
     </row>
     <row r="11" ht="27.75" spans="1:19">
       <c r="A11" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
@@ -2598,7 +2602,7 @@
         <v>20</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -2611,19 +2615,19 @@
       <c r="A12" s="13"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
@@ -2641,19 +2645,19 @@
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
@@ -2669,28 +2673,28 @@
     </row>
     <row r="14" ht="15" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
@@ -2699,7 +2703,7 @@
         <v>20</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -2710,25 +2714,25 @@
     </row>
     <row r="15" ht="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
@@ -2746,25 +2750,25 @@
     </row>
     <row r="16" ht="27.75" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>20</v>
@@ -2784,23 +2788,23 @@
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J17" s="22"/>
       <c r="N17" s="14"/>
@@ -2812,13 +2816,13 @@
     </row>
     <row r="18" ht="14.25" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2838,11 +2842,11 @@
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2858,7 +2862,7 @@
     </row>
     <row r="20" ht="15" spans="1:19">
       <c r="A20" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2886,7 +2890,7 @@
     </row>
     <row r="22" spans="5:19">
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
@@ -3556,36 +3560,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="10:19">
       <c r="J42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S42" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3631,30 +3635,30 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表结构" sheetId="4" r:id="rId1"/>
@@ -13,16 +13,38 @@
     <sheet name="注册2" sheetId="6" r:id="rId4"/>
     <sheet name="登录" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>tb_info</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>id + Src</t>
+  </si>
+  <si>
+    <t>id + Trg</t>
+  </si>
+  <si>
     <t>网络聊天室测试</t>
   </si>
   <si>
@@ -65,17 +87,17 @@
     <t>注册用户</t>
   </si>
   <si>
-    <t>用户：aaa，密码：aaa</t>
+    <t>用户：aaa，密码：111111</t>
   </si>
   <si>
     <t>/</t>
   </si>
   <si>
-    <t>客户端:{ "communication_type":"register", "customer" : "aaa", "password" : "jaqahama0apajaqahama0apa"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"registerbacksucceed","customer":"aaa","id":"10000",
- "register_result":"succeed"}</t>
+    <t>客户端:{ "communication_type":"register", "customer" : "aaa", "password" : "j1q1h1m101p1g1a1f121c1w1"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器:{"customer" : "aaa" ,"id" : "10001" ,"communication_type" : "registerbacksucceed"}
+</t>
   </si>
   <si>
     <t>注册成功</t>
@@ -87,34 +109,45 @@
     <t>注册1!A1</t>
   </si>
   <si>
-    <t>用户：bbb，密码：bbb</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"register", "customer" : "bbb", "password" : "bbb"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"registerbacksucceed","customer":"bbb","id":"10001",
-"register_result":"succeed"}</t>
+    <t>用户：bbb，密码：222222</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"register", "customer" : "bbb", "password" : "j2q2h2m202p2g2a2f222c2w2"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器:{"customer" : "bbb" ,"id" : "10002" ,"communication_type" : "registerbacksucceed"}
+</t>
   </si>
   <si>
     <t>注册2!A1</t>
   </si>
   <si>
+    <t>用户：ccc，密码：1111</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"register", "customer" : "ccc", "password" : "j1q1h1m101p1g1a1"}</t>
+  </si>
+  <si>
+    <t>服务器:{"description" : "password too short" ,"customer" : "ccc" ,"communication_type" : "registerbackfailed"}</t>
+  </si>
+  <si>
+    <t>注册失败</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>用户登录</t>
   </si>
   <si>
-    <t>用户：10000，密码：aaa</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" : 
-"jaqahama0apajaqahama0apa"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"loginbacksucceed","customer":"aaa","login_result":
-"succeed"}</t>
+    <t>用户：10001，密码：111111</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"login", "id" : "10001", "password" : 
+"j1q1h1m101p1g1a1f121c1w1"}</t>
+  </si>
+  <si>
+    <t>服务器:{"customer" : "aaa" ,"communication_type" : "loginbacksucceed"}</t>
   </si>
   <si>
     <t>成功登陆</t>
@@ -126,44 +159,36 @@
     <t>登录!A1</t>
   </si>
   <si>
-    <t>用户10000已登录</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" : 
-"jaqahama0apa"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"loginbackfailed","customer":"aaa",
-"description":"this user has already login in, please make sure or modify your password","login_result":"192.168.0.104"}</t>
-  </si>
-  <si>
-    <t>提示是否强制登录</t>
-  </si>
-  <si>
-    <t>用户：10000，密码：ccc</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"login", "id" : "10000", "password" :
-"cccccccccccc"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"loginbackfailed","description":"password error","login_result":"failed"}</t>
+    <t>用户10001已登录</t>
+  </si>
+  <si>
+    <t>服务器:{"description" : "this user has already login in, please make sure or modify your password" ,"id" : "10001" ,"communication_type" : "loginbackfailed"}</t>
   </si>
   <si>
     <t>登录失败</t>
   </si>
   <si>
-    <t>用户：99999，密码：aaa</t>
+    <t>用户：10001，密码：222222</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"login", "id" : "10001", "password" :
+"j2q2h2m202p2g2a2f222c2w2"}</t>
+  </si>
+  <si>
+    <t>服务器:{"description" : "password error" ,"id" : "10001" ,"communication_type" : "loginbackfailed"}</t>
+  </si>
+  <si>
+    <t>用户：99999，密码：111111</t>
   </si>
   <si>
     <t>用户99999未注册</t>
   </si>
   <si>
     <t>客户端:{ "communication_type":"login", "id" : "99999", "password" :
-"jaqahama0apa"}</t>
-  </si>
-  <si>
-    <t>服务器:{"communication_type":"loginbackfailed","description":"there is no such user","login_result":"failed"}</t>
+"j1q1h1m101p1g1a1f121c1w1"}</t>
+  </si>
+  <si>
+    <t>服务器:{"description" : "there is no such user" ,"id" : "99999" ,"communication_type" : "loginbackfailed"}</t>
   </si>
   <si>
     <t>changepassword</t>
@@ -172,7 +197,17 @@
     <t>修改密码</t>
   </si>
   <si>
-    <t>用户: 10000, 原密码: aaa 新密码: 123</t>
+    <t>用户: 10002, 原密码: 222222 新密码: 123456</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"changepassword", "id" : "10002", "old_password" : "j2q2h2m202p2g2a2f222c2w2", "password" : "j1q6h2m503p4g4a3f522c6w1"}</t>
+  </si>
+  <si>
+    <t>服务器:{"update_result" : "succeed" ,"id" : "10002" 
+,"communication_type" : "changepassword"}</t>
+  </si>
+  <si>
+    <t>改密成功</t>
   </si>
   <si>
     <t>showlogin</t>
@@ -181,18 +216,15 @@
     <t>显示登录</t>
   </si>
   <si>
-    <t>用户：10000:aaa:1|10001:bbb:0|10002:ccc:0</t>
-  </si>
-  <si>
-    <t>用户登录,登出,服务器自动广播,用户10000在线，
-10001,10002离线</t>
-  </si>
-  <si>
-    <t>服务器:{ "communication_type":"showlogin", 
-"customer" : "10000:aaa:1|10001:bbb:0|10002:ccc:0", "show_login_type" : "0"}</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>用户：10001:bbb:1</t>
+  </si>
+  <si>
+    <t>用户10001上线,用户10002在线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务器 -&gt; 本机:{"show_login_type" : "0" ,"customer" : "10000-aaa-0|10001-aaa-1|10002-bbb-1|" ,"communication_type" : "showlogin"}
+广播:{"show_login_type" : "1" ,"customer" : "10001-aaa-1|" ,"communication_type" : "showlogin"}
+</t>
   </si>
   <si>
     <t>客户端显示用户</t>
@@ -201,29 +233,18 @@
     <t>登录!J2</t>
   </si>
   <si>
-    <t>用户：10001:bbb:1</t>
-  </si>
-  <si>
-    <t>用户10001上线</t>
-  </si>
-  <si>
-    <t>服务器:{ "communication_type":"showlogin", "customer" : "10001:bbb:1", 
-"show_login_type" : "1"}</t>
+    <t>用户：10001:bbb:0</t>
+  </si>
+  <si>
+    <t>用户10001离线</t>
+  </si>
+  <si>
+    <t>广播:{"show_login_type" : "-1" ,"customer" : "10001-aaa--1|" ,"communication_type" : "showlogin"}</t>
   </si>
   <si>
     <t>客户端用户改变状态</t>
   </si>
   <si>
-    <t>用户：10001:bbb:0</t>
-  </si>
-  <si>
-    <t>用户10001离线</t>
-  </si>
-  <si>
-    <t>服务器:{ "communication_type":"showlogin", "customer" : "10001:bbb:0", 
-"show_login_type" : "-1"}</t>
-  </si>
-  <si>
     <t>deletecustomer</t>
   </si>
   <si>
@@ -233,7 +254,7 @@
     <t>用户：aaa</t>
   </si>
   <si>
-    <t>客户端:{ "communication_type":"delcustomer", "id":"10000"}</t>
+    <t>客户端:{ "communication_type":"delcustomer", "id":"10001"}</t>
   </si>
   <si>
     <t>成功退出</t>
@@ -254,7 +275,7 @@
     <t>用户: aaa</t>
   </si>
   <si>
-    <t>客户端/服务器:{ "communication_type":"forcedelete", "id":"10000"}</t>
+    <t>用户10002已登录</t>
   </si>
   <si>
     <t>chat</t>
@@ -266,32 +287,34 @@
     <t>用户：aaa，对象：bbb，内容：你好</t>
   </si>
   <si>
-    <t>用户10000已登录,10001未登录</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
-  </si>
-  <si>
-    <t>服务器:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
+    <t>10001未登录</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"chat", "sourceid" : "10002", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
+  </si>
+  <si>
+    <t>服务器/B:{ "communication_type":"chat", "sourceid" : "10002", "targetid" : "10001", "content" : "你好", "time" : "2023-5-7 23:10:00"}</t>
   </si>
   <si>
     <t>成功发送</t>
   </si>
   <si>
+    <t>OK  IsRead = 0</t>
+  </si>
+  <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
   </si>
   <si>
-    <t>用户10000已登录,10001已登录</t>
-  </si>
-  <si>
-    <t>客户端:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001", "content" : "Hello World"}</t>
-  </si>
-  <si>
-    <t>服务器:{ "communication_type":"chat", "sourceid" : "10000", "targetid" : "10001",
-  "content" : "Hello World"}</t>
-  </si>
-  <si>
-    <t>1.OK 2.</t>
+    <t>10001已登录</t>
+  </si>
+  <si>
+    <t>客户端:{ "communication_type":"chat", "sourceid" : "10002", "targetid" : "10001", "content" : "Hello World", "time" : "2023-5-7 23:10:00"}</t>
+  </si>
+  <si>
+    <t>服务器/B:{ "communication_type":"chat", "sourceid" : "10002", "targetid" : "10001", "content" : "Hello World", "time" : "2023-5-7 23:10:00"}</t>
+  </si>
+  <si>
+    <t>OK  IsRead = 1</t>
   </si>
   <si>
     <t>transferfile</t>
@@ -312,7 +335,8 @@
     <t>heartbeat</t>
   </si>
   <si>
-    <t>aaa : jaqahama0apa</t>
+    <t>10002: { "communication_type":"login", "id" : "10002", "password" :
+"j1q6h2m503p4g4a3f522c6w1"}</t>
   </si>
   <si>
     <t>界面</t>
@@ -357,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -388,47 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,6 +456,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,7 +521,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,55 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,31 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +617,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,7 +641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,9 +800,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color rgb="FF00B050"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -796,7 +818,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,21 +869,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -888,6 +897,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,148 +970,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,8 +1149,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1134,16 +1164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="10" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1185,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1176,52 +1200,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1239,19 +1263,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76835</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>229235</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1264,8 +1288,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76835" y="276225"/>
-          <a:ext cx="5638800" cy="2543175"/>
+          <a:off x="142875" y="219075"/>
+          <a:ext cx="5286375" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="3724275"/>
+          <a:ext cx="5305425" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="285750"/>
+          <a:ext cx="4838700" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2213,21 +2321,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2241,10 +2360,10 @@
   <sheetPr/>
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2261,7 +2380,7 @@
   <sheetData>
     <row r="1" ht="48" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2287,28 +2406,28 @@
     </row>
     <row r="2" ht="15" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="20"/>
@@ -2322,507 +2441,482 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:11">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:19">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="27.75" spans="1:19">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="8"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" ht="27.75" spans="1:19">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-    </row>
-    <row r="6" ht="27.75" spans="1:19">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="24" t="s">
+      <c r="H6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="23"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" ht="27.75" spans="1:19">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:19">
-      <c r="A7" s="13"/>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" ht="27" spans="1:19">
-      <c r="A8" s="13"/>
+      <c r="A8" s="10"/>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="24"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" ht="27.75" spans="1:19">
-      <c r="A9" s="13"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" ht="27" spans="1:19">
+      <c r="A9" s="10"/>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="24"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" ht="15" spans="1:19">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" ht="27.75" spans="1:19">
+      <c r="A10" s="10"/>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="25"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" ht="27.75" spans="1:19">
-      <c r="A11" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="F10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" ht="42" spans="1:19">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-    </row>
-    <row r="12" ht="27" spans="1:19">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="25"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" ht="68.25" spans="1:19">
+      <c r="A12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="16" t="s">
         <v>59</v>
       </c>
+      <c r="D12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="22"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="K12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" ht="27.75" spans="1:19">
       <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>54</v>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
-        <v>20</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8"/>
       <c r="J13" s="22"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" ht="15" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>20</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" ht="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="21"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" ht="27.75" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="22"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" ht="27.75" spans="1:19">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="H17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="J17" s="22"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" ht="14.25" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2831,714 +2925,714 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="26"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
     <row r="19" ht="14.25" spans="1:19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="21"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
     </row>
     <row r="20" ht="15" spans="1:19">
-      <c r="A20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="21"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
     </row>
     <row r="21" ht="14.25" spans="14:19">
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="5:19">
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="14:19">
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="14:19">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" ht="40.5" spans="4:19">
+      <c r="D23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
     </row>
     <row r="24" spans="14:19">
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="14:19">
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="26" spans="14:19">
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
     </row>
     <row r="27" spans="14:19">
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
     </row>
     <row r="28" spans="14:19">
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
     </row>
     <row r="29" spans="14:19">
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
     </row>
     <row r="30" spans="14:19">
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
     </row>
     <row r="31" spans="14:19">
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="8"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
     </row>
     <row r="33" spans="14:19">
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
     </row>
     <row r="34" spans="14:19">
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
     </row>
     <row r="35" spans="14:19">
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
     </row>
     <row r="36" spans="14:19">
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
     </row>
     <row r="37" spans="14:19">
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
     </row>
     <row r="38" spans="14:19">
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
     </row>
     <row r="39" spans="14:19">
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
     </row>
     <row r="40" spans="14:19">
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
     </row>
     <row r="41" spans="14:19">
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
     </row>
     <row r="42" spans="14:19">
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
     </row>
     <row r="43" spans="14:19">
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
     </row>
     <row r="44" spans="14:19">
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
     </row>
     <row r="45" spans="14:19">
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
     </row>
     <row r="46" spans="14:19">
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
     </row>
     <row r="47" spans="14:19">
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
     </row>
     <row r="48" spans="14:19">
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
     </row>
     <row r="49" spans="14:19">
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
     </row>
     <row r="50" spans="14:19">
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
     </row>
     <row r="51" spans="14:19">
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
     </row>
     <row r="52" spans="14:19">
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
     </row>
     <row r="53" spans="14:19">
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
     </row>
     <row r="54" spans="14:19">
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
     </row>
     <row r="55" spans="14:19">
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
     </row>
     <row r="56" spans="14:19">
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
     </row>
     <row r="57" spans="14:19">
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
     </row>
     <row r="58" spans="14:19">
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
     </row>
     <row r="59" spans="14:19">
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
     </row>
     <row r="60" spans="14:19">
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
     </row>
     <row r="61" spans="14:19">
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
     </row>
     <row r="62" spans="14:19">
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
     </row>
     <row r="63" spans="14:19">
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
     </row>
     <row r="64" spans="14:19">
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="14"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
     </row>
     <row r="65" spans="14:19">
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
     </row>
     <row r="66" spans="14:19">
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
     </row>
     <row r="67" spans="14:19">
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
     </row>
     <row r="68" spans="14:19">
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="14"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
     </row>
     <row r="69" spans="14:19">
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
     </row>
     <row r="70" spans="14:19">
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
     </row>
     <row r="71" spans="14:19">
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="14"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
     </row>
     <row r="72" spans="14:19">
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="14"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
     </row>
     <row r="73" spans="14:19">
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="14"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
     </row>
     <row r="74" spans="14:19">
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="14"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
     </row>
     <row r="75" spans="14:19">
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="14"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
     </row>
     <row r="76" spans="14:19">
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
     </row>
     <row r="77" spans="14:19">
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="14"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
     </row>
     <row r="78" spans="14:19">
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
     </row>
     <row r="79" spans="14:19">
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
     </row>
     <row r="80" spans="14:19">
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="14"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="14"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
     </row>
     <row r="81" spans="14:19">
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
     </row>
     <row r="82" spans="14:19">
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
-      <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
     </row>
     <row r="83" spans="14:19">
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
-      <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
     </row>
     <row r="84" spans="14:19">
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
     </row>
     <row r="85" spans="14:19">
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
     </row>
     <row r="86" spans="14:19">
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
     </row>
     <row r="87" spans="14:19">
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
     </row>
     <row r="88" spans="14:19">
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="14"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
     </row>
     <row r="89" spans="14:19">
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="14"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
     </row>
     <row r="90" spans="14:19">
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
-      <c r="S90" s="14"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
     </row>
     <row r="91" spans="14:19">
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
     </row>
     <row r="92" spans="14:19">
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
-      <c r="S92" s="14"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
     </row>
     <row r="93" spans="14:19">
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
-      <c r="S93" s="14"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
     </row>
     <row r="94" spans="14:19">
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="14"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
     </row>
     <row r="95" spans="14:19">
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
     </row>
     <row r="96" spans="14:19">
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
-      <c r="S96" s="14"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
     </row>
     <row r="97" spans="14:19">
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
-      <c r="S97" s="14"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
     </row>
     <row r="98" spans="14:19">
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
-      <c r="S98" s="14"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
     </row>
     <row r="99" spans="14:19">
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-      <c r="R99" s="14"/>
-      <c r="S99" s="14"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
     </row>
     <row r="100" spans="14:19">
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-      <c r="R100" s="14"/>
-      <c r="S100" s="14"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K7:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1" display="transferfile.txt"/>
     <hyperlink ref="K4" location="注册1!A1" display="注册1!A1"/>
     <hyperlink ref="K5" location="注册2!A1" display="注册2!A1"/>
-    <hyperlink ref="K6" location="登录1!A1" display="登录!A1"/>
-    <hyperlink ref="K6:K9" location="登录!A1" display="登录!A1"/>
-    <hyperlink ref="K6:K9" location="表结构!A1" display="登录!A1"/>
-    <hyperlink ref="K6:K9" location="登录!A1" display="登录!A1"/>
-    <hyperlink ref="K11" location="登录!J2" display="登录!J2"/>
+    <hyperlink ref="K7" location="登录1!A1" display="登录!A1"/>
+    <hyperlink ref="K7:K10" location="登录!A1" display="登录!A1"/>
+    <hyperlink ref="K7:K10" location="表结构!A1" display="登录!A1"/>
+    <hyperlink ref="K7:K10" location="登录!A1" display="登录!A1"/>
+    <hyperlink ref="K12" location="登录!J2" display="登录!J2"/>
     <hyperlink ref="K14" location="登录!A63" display="登录!A63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3560,36 +3654,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="10:19">
       <c r="J42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3706,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3627,7 +3721,7 @@
   <sheetPr/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -3635,30 +3729,30 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/网络聊天室测试.xlsx
+++ b/网络聊天室测试.xlsx
@@ -12,6 +12,8 @@
     <sheet name="注册1" sheetId="5" r:id="rId3"/>
     <sheet name="注册2" sheetId="6" r:id="rId4"/>
     <sheet name="登录" sheetId="7" r:id="rId5"/>
+    <sheet name="改密" sheetId="8" r:id="rId6"/>
+    <sheet name="聊天" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>tb_info</t>
   </si>
@@ -147,7 +149,7 @@
 "j1q1h1m101p1g1a1f121c1w1"}</t>
   </si>
   <si>
-    <t>服务器:{"customer" : "aaa" ,"communication_type" : "loginbacksucceed"}</t>
+    <t>服务器:{"customer" : "aaa" , "id" : "10001" , "communication_type" : "loginbacksucceed"}</t>
   </si>
   <si>
     <t>成功登陆</t>
@@ -162,10 +164,10 @@
     <t>用户10001已登录</t>
   </si>
   <si>
-    <t>服务器:{"description" : "this user has already login in, please make sure or modify your password" ,"id" : "10001" ,"communication_type" : "loginbackfailed"}</t>
-  </si>
-  <si>
-    <t>登录失败</t>
+    <t>服务器:{"description" : "this user has already login in, please make sure or modify your password" , "ip" : "192.168.0.104" ,"id" : "10001" ,"communication_type" : "loginbackfailed"}</t>
+  </si>
+  <si>
+    <t>登录成功/失败</t>
   </si>
   <si>
     <t>用户：10001，密码：222222</t>
@@ -178,6 +180,9 @@
     <t>服务器:{"description" : "password error" ,"id" : "10001" ,"communication_type" : "loginbackfailed"}</t>
   </si>
   <si>
+    <t>登录失败</t>
+  </si>
+  <si>
     <t>用户：99999，密码：111111</t>
   </si>
   <si>
@@ -208,6 +213,9 @@
   </si>
   <si>
     <t>改密成功</t>
+  </si>
+  <si>
+    <t>改密!A1</t>
   </si>
   <si>
     <t>showlogin</t>
@@ -263,28 +271,34 @@
     <t>OK  IsLogin = 0</t>
   </si>
   <si>
-    <t>登录!A63</t>
-  </si>
-  <si>
     <t>forcedelete</t>
   </si>
   <si>
     <t>强制退出</t>
   </si>
   <si>
-    <t>用户: aaa</t>
+    <t>用户: bbb</t>
   </si>
   <si>
     <t>用户10002已登录</t>
   </si>
   <si>
+    <t>客户端A:{ "communication_type":"forcedelete", "id":"10002"}</t>
+  </si>
+  <si>
+    <t>服务器-&gt;客户端B:{ "communication_type":"forcedelete", "id":"10002"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
     <t>chat</t>
   </si>
   <si>
     <t>聊天</t>
   </si>
   <si>
-    <t>用户：aaa，对象：bbb，内容：你好</t>
+    <t>用户：bbb，对象：aaa，内容：你好</t>
   </si>
   <si>
     <t>10001未登录</t>
@@ -302,6 +316,9 @@
     <t>OK  IsRead = 0</t>
   </si>
   <si>
+    <t>聊天!A1</t>
+  </si>
+  <si>
     <t>用户：bbb，对象：aaa，内容：Hello World</t>
   </si>
   <si>
@@ -315,6 +332,27 @@
   </si>
   <si>
     <t>OK  IsRead = 1</t>
+  </si>
+  <si>
+    <t>initcustomerchat</t>
+  </si>
+  <si>
+    <t>初始化聊天历史</t>
+  </si>
+  <si>
+    <t>用户:bbb, 对象:aaa</t>
+  </si>
+  <si>
+    <t>上述聊天已产生</t>
+  </si>
+  <si>
+    <t>客户端:{"requestid" : "10002" ,"id" : "10001" ,"communication_type" : "initcustomerchat"}</t>
+  </si>
+  <si>
+    <t>服务器:{"targetcontent" : "2024/2/8 0:07:48&amp;hello&amp;-1&amp;0;2024/2/8 0:35:20&amp;Hello&amp;-1&amp;0;2024/2/8 0:53:55&amp;Hello&amp;-1&amp;0" ,"sourcecontent" : "2024/2/8 1:03:42&amp;Hello World&amp;0;2024/2/8 1:08:32&amp;你好&amp;-1" ,"id" : "10002" ,"contentid" : "10001" ,"communication_type" : "initcustomerchatback"}</t>
+  </si>
+  <si>
+    <t>显示历史消息</t>
   </si>
   <si>
     <t>transferfile</t>
@@ -351,31 +389,46 @@
     <t>验证码错误</t>
   </si>
   <si>
-    <t>表结构</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
     <t>成功注册</t>
   </si>
   <si>
     <t>登录成功</t>
   </si>
   <si>
+    <t>客户端:</t>
+  </si>
+  <si>
     <t>账号错误</t>
   </si>
   <si>
     <t>密码错误</t>
   </si>
   <si>
+    <t>数据库:</t>
+  </si>
+  <si>
     <t>重复登录</t>
   </si>
   <si>
-    <t>退出</t>
+    <t>服务器:</t>
+  </si>
+  <si>
+    <t>原密码错误</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>阅读</t>
+  </si>
+  <si>
+    <t>发送(未阅读)</t>
+  </si>
+  <si>
+    <t>数据库(10001登录):</t>
+  </si>
+  <si>
+    <t>数据库(10001未登录):</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,6 +1248,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,19 +1456,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76835</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>400685</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1419,8 +1481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="4676775" cy="3114675"/>
+          <a:off x="76835" y="229235"/>
+          <a:ext cx="4438650" cy="3076575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1436,19 +1498,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1461,8 +1523,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3600450"/>
-          <a:ext cx="4400550" cy="3124200"/>
+          <a:off x="76200" y="3667125"/>
+          <a:ext cx="4438650" cy="3038475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1478,19 +1540,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1503,8 +1565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7029450"/>
-          <a:ext cx="4638675" cy="3133725"/>
+          <a:off x="95250" y="7134225"/>
+          <a:ext cx="4486275" cy="2990850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,19 +1582,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>105410</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>457835</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1545,8 +1607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10458450"/>
-          <a:ext cx="4667250" cy="3181350"/>
+          <a:off x="105410" y="10621010"/>
+          <a:ext cx="4467225" cy="3038475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1562,19 +1624,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1587,92 +1649,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="171450"/>
-          <a:ext cx="14211300" cy="6315075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="7200900"/>
-          <a:ext cx="4610100" cy="1962150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12344400" y="7200900"/>
-          <a:ext cx="5324475" cy="2114550"/>
+          <a:off x="6315075" y="247650"/>
+          <a:ext cx="14258925" cy="6134100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,19 +1671,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>143510</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>486410</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1718,8 +1696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="4514850" cy="3076575"/>
+          <a:off x="143510" y="257810"/>
+          <a:ext cx="4457700" cy="3028950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,15 +1718,314 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>114935</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>76835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>334010</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114935" y="248285"/>
+          <a:ext cx="4333875" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="124460" y="3382010"/>
+          <a:ext cx="4371975" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362585</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="124460" y="6649085"/>
+          <a:ext cx="4352925" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381635</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="143510" y="9906635"/>
+          <a:ext cx="4352925" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181610</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>305435</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353810" y="467360"/>
+          <a:ext cx="9725025" cy="6648450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="7677150"/>
+          <a:ext cx="8696325" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="9906000"/>
+          <a:ext cx="5295900" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1765,8 +2042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="171450"/>
-          <a:ext cx="4476750" cy="2762250"/>
+          <a:off x="124460" y="257175"/>
+          <a:ext cx="4514850" cy="3638550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,15 +2059,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1807,8 +2084,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3257550"/>
-          <a:ext cx="4686300" cy="2828925"/>
+          <a:off x="133350" y="4429125"/>
+          <a:ext cx="4514850" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,16 +2100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,8 +2126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6515100"/>
-          <a:ext cx="4476750" cy="2686050"/>
+          <a:off x="6334125" y="247650"/>
+          <a:ext cx="4524375" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,15 +2143,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1891,8 +2168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="171450"/>
-          <a:ext cx="9753600" cy="6638925"/>
+          <a:off x="6343650" y="4391025"/>
+          <a:ext cx="4505325" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,16 +2184,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1933,8 +2210,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="6858000"/>
-          <a:ext cx="9486900" cy="219075"/>
+          <a:off x="12487275" y="247650"/>
+          <a:ext cx="4495800" cy="3600450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1947,36 +2224,41 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="7543800"/>
-          <a:ext cx="4419600" cy="2714625"/>
+          <a:off x="152400" y="238125"/>
+          <a:ext cx="8061960" cy="4382135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1992,33 +2274,159 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>654685</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10801350"/>
-          <a:ext cx="8191500" cy="171450"/>
+          <a:off x="133350" y="5086350"/>
+          <a:ext cx="8065135" cy="4374515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9688830" y="247650"/>
+          <a:ext cx="7976870" cy="4321175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="5057775"/>
+          <a:ext cx="5895975" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="8658225"/>
+          <a:ext cx="6067425" cy="3562350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2357,13 +2765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V100"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H14" sqref="H14"/>
+      <selection pane="topRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2475,8 +2885,12 @@
       <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="23" t="s">
         <v>24</v>
       </c>
@@ -2502,8 +2916,12 @@
       <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K5" s="23" t="s">
         <v>28</v>
       </c>
@@ -2535,8 +2953,12 @@
       <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="K6" s="23"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -2570,8 +2992,12 @@
       <c r="H7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="22"/>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K7" s="24" t="s">
         <v>40</v>
       </c>
@@ -2582,7 +3008,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" ht="27" spans="1:19">
+    <row r="8" ht="40.5" spans="1:19">
       <c r="A8" s="10"/>
       <c r="C8" t="s">
         <v>35</v>
@@ -2602,8 +3028,12 @@
       <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="22"/>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="24"/>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
@@ -2627,13 +3057,17 @@
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K9" s="24"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -2645,25 +3079,29 @@
     <row r="10" ht="27.75" spans="1:19">
       <c r="A10" s="10"/>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="22"/>
+      <c r="I10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="K10" s="24"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2674,31 +3112,38 @@
     </row>
     <row r="11" ht="42" spans="1:19">
       <c r="A11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>58</v>
+      </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -2706,35 +3151,39 @@
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" ht="68.25" spans="1:19">
+    <row r="12" ht="69" spans="1:19">
       <c r="A12" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="22"/>
+      <c r="I12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>23</v>
+      </c>
       <c r="K12" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -2743,29 +3192,33 @@
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" ht="27.75" spans="1:19">
+    <row r="13" ht="28.5" spans="1:19">
       <c r="A13" s="10"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="22"/>
+      <c r="I13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -2775,34 +3228,36 @@
     </row>
     <row r="14" ht="15" spans="1:19">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23" t="s">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="23"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -2812,31 +3267,35 @@
     </row>
     <row r="15" ht="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="21"/>
+        <v>82</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -2844,33 +3303,40 @@
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" ht="27.75" spans="1:19">
+    <row r="16" ht="28.5" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -2878,29 +3344,34 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" ht="27.75" spans="1:19">
+    <row r="17" ht="28.5" spans="1:19">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="24"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -2908,23 +3379,38 @@
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" ht="14.25" spans="1:19">
-      <c r="A18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="26"/>
+    <row r="18" ht="55.5" spans="1:19">
+      <c r="A18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="24"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
@@ -2933,20 +3419,22 @@
       <c r="S18" s="12"/>
     </row>
     <row r="19" ht="14.25" spans="1:19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="21"/>
+      <c r="A19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="28"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -2954,14 +3442,16 @@
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" ht="15" spans="1:19">
-      <c r="A20" s="15" t="s">
-        <v>97</v>
-      </c>
+    <row r="20" ht="14.25" spans="1:19">
+      <c r="A20" s="15"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="C20" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -2974,7 +3464,19 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" ht="14.25" spans="14:19">
+    <row r="21" ht="15" spans="1:19">
+      <c r="A21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="21"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -2982,7 +3484,7 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="14:19">
+    <row r="22" ht="14.25" spans="14:19">
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -2990,10 +3492,7 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" ht="40.5" spans="4:19">
-      <c r="D23" s="12" t="s">
-        <v>98</v>
-      </c>
+    <row r="23" spans="14:19">
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -3001,7 +3500,10 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="14:19">
+    <row r="24" ht="40.5" spans="4:19">
+      <c r="D24" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -3065,8 +3567,7 @@
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="8"/>
+    <row r="32" spans="14:19">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -3074,7 +3575,8 @@
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="14:19">
+    <row r="33" spans="1:19">
+      <c r="A33" s="8"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -3618,14 +4120,23 @@
       <c r="R100" s="12"/>
       <c r="S100" s="12"/>
     </row>
+    <row r="101" spans="14:19">
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" display="transferfile.txt"/>
+    <hyperlink ref="E20" r:id="rId1" display="transferfile.txt"/>
     <hyperlink ref="K4" location="注册1!A1" display="注册1!A1"/>
     <hyperlink ref="K5" location="注册2!A1" display="注册2!A1"/>
     <hyperlink ref="K7" location="登录1!A1" display="登录!A1"/>
@@ -3633,10 +4144,11 @@
     <hyperlink ref="K7:K10" location="表结构!A1" display="登录!A1"/>
     <hyperlink ref="K7:K10" location="登录!A1" display="登录!A1"/>
     <hyperlink ref="K12" location="登录!J2" display="登录!J2"/>
-    <hyperlink ref="K14" location="登录!A63" display="登录!A63"/>
+    <hyperlink ref="K11" location="改密!A1" display="改密!A1"/>
+    <hyperlink ref="K16:K17" location="聊天!A1" display="聊天!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3644,50 +4156,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="10:19">
-      <c r="J42" t="s">
-        <v>104</v>
-      </c>
-      <c r="S42" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3706,7 +4208,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3719,40 +4221,124 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="10:10">
+      <c r="J2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="J57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
         <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
